--- a/apps/features/backlog/desktop/windows/gaming server/gaming_server.xlsx
+++ b/apps/features/backlog/desktop/windows/gaming server/gaming_server.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\gaming server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB27A58E-CFFB-4510-BE51-77984D51FD8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFC5F14-1DFC-4B8B-B98B-FE33034E1B31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gaming Server" sheetId="1" r:id="rId1"/>
+    <sheet name="gaming_server" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -61,15 +61,6 @@
     <t>Verify Successful Connection Establishment</t>
   </si>
   <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server list page.
-5. Select the first gaming server from the gaming section.
-6. Open the "Call of Duty" game and log in with the user account.
-7. Initiate the connection.</t>
-  </si>
-  <si>
     <t>The VPN app should establish a connection to the gaming server without any errors.</t>
   </si>
   <si>
@@ -77,15 +68,6 @@
   </si>
   <si>
     <t>The connection should remain stable throughout the gameplay session.</t>
-  </si>
-  <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server list page.
-5. Select the first gaming server from the gaming section.
-6. Join a multiplayer game session and play atleast 15 minutes.
-7. Observe and record any latency or connection drop issues during gameplay.</t>
   </si>
   <si>
     <t>Verify Stable Connection During Gameplay</t>
@@ -100,16 +82,6 @@
   </si>
   <si>
     <t>Measure and validate the latency introduced by the VPN during gameplay on each server.</t>
-  </si>
-  <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server list page.
-5. Select any gaming server from the gaming section.
-6. Launch the "Call of Duty" game and enter a multiplayer match.
-7. Play the game for at least 15 minutes, ensuring various in-game activities are performed.
-8. Check the PING for meaasuring the latency</t>
   </si>
   <si>
     <t>The latency introduced by the VPN on a server should be within an acceptable range, ensuring a playable and enjoyable gaming experience.</t>
@@ -127,16 +99,6 @@
     <t>Verify Consistency of Ping Times</t>
   </si>
   <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server list page.
-5. Select any gaming server from the gaming section.
-6. Launch the "Call of Duty" game and enter a multiplayer match.
-7. Play several consecutive games of "Call of Duty" on each server.
-8. Monitor the in-game ping times during gameplay.</t>
-  </si>
-  <si>
     <t>The ping times should remain relatively consistent throughout the gaming sessions, with minimal fluctuations.</t>
   </si>
   <si>
@@ -145,16 +107,6 @@
   </si>
   <si>
     <t>Simultaneous Connection</t>
-  </si>
-  <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server list page.
-5. Attempt to connect the first device to the gaming server.
-6. Repeat the process for the maximum allowed simultaneous connections.
-7. Verify that the VPN app allows the expected maximum number of simultaneous connections.
-8. Ensure that each connected device maintains a stable connection.</t>
   </si>
   <si>
     <t>App should allow the specified maximum simultaneous connections and each device should have a stable connection.</t>
@@ -179,16 +131,6 @@
     <t>Disconnecting from Servers</t>
   </si>
   <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server list page.
-5. Select any gaming server from the gaming section.
-6. Launch the "Call of Duty" game and enter a multiplayer match.
-7. User is connected to the gaming servers.
-8. Click on "disconnet button"</t>
-  </si>
-  <si>
     <t>The game session should be interrupted, and the user should be notified appropriately.</t>
   </si>
   <si>
@@ -198,17 +140,6 @@
   </si>
   <si>
     <t>Disconnecting During Network Interruption</t>
-  </si>
-  <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server list page.
-5. Select any gaming server from the gaming section.
-6. Launch the "Call of Duty" game and enter a multiplayer match.
-7. User is connected to the gaming servers.
-8. turn off the network (wifi/ data)
-9. Click on "disconnet button"</t>
   </si>
   <si>
     <t>The user should be notified of the disconnection, and the app should not crash or behave unpredictably.</t>
@@ -221,16 +152,6 @@
     <t>Successful Reconnection</t>
   </si>
   <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server list page.
-5. Select any gaming server from the gaming section.
-6. Simulate a temporary loss of internet connection.
-7. Observe the VPN app's behavior during disconnection.
-8. Wait for the internet connection to be restored.</t>
-  </si>
-  <si>
     <t>The VPN app successfully reconnects to the gaming server, and the user experiences minimal disruption in gameplay.</t>
   </si>
   <si>
@@ -240,17 +161,6 @@
   </si>
   <si>
     <t>Switching Between Servers</t>
-  </si>
-  <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server selection option.
-5. Select Server B.
-6. Verify that the connection is established with Server B.
-7. Launch the "Call of Duty" game.
-8.Verify that the game runs smoothly without any disruptions.
-9. Check for the game's ping to ensure a reasonable latency level.</t>
   </si>
   <si>
     <t>The user should be able to switch between servers seamlessly, and the game should run without any issues.</t>
@@ -267,16 +177,6 @@
     <t>Switching Between Region</t>
   </si>
   <si>
-    <t>1. Go to the Google Play Store and install SymlexVPN on your mobile device.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server selection option.
-5. Select a server of Region B.
-6. Verify that the connection is established with Server B.
-7. Launch the "Call of Duty" game.
-8.Verify that the game runs smoothly without any disruptions.</t>
-  </si>
-  <si>
     <t>The VPN app should successfully disconnect from the current server in Region A and  should connect to the gaming server in Region B and alsos play "Call of Duty" on the new server without any issues.</t>
   </si>
   <si>
@@ -289,31 +189,12 @@
     <t>Cross-Platform Test</t>
   </si>
   <si>
-    <t>1. Go to the Google Play Store and Install and configure the Symlex VPN app on different mobile devices.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server selection option.
-5. Select a server of Region B.
-6. Verify that the connection is established with Server B.
-7. Launch the "Call of Duty" game.
-8.Verify that the game runs smoothly without any disruptions.</t>
-  </si>
-  <si>
     <t>1. User is logged into the SymlexVPN app.
 2. Game "Call of Duty" has an available update.
 3. Stable internet connection.</t>
   </si>
   <si>
     <t>Test Connection Handling During Game Updates</t>
-  </si>
-  <si>
-    <t>1. Go to the Google Play Store and Install and configure the Symlex VPN app on different mobile devices.
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server selection option.
-5.Launch the "Call of Duty" game
-6.Initiate a game update on one connected device.
-7.Monitor the impact on the connection stability of other devices during the update process.</t>
   </si>
   <si>
     <t>App should handle simultaneous connections seamlessly during game updates.</t>
@@ -327,14 +208,6 @@
     <t>check visibility of gaming server</t>
   </si>
   <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
-2. open the symlexvpn application once it's installed.
-3. enter your proper credentials and tap to login button
-4. navigate to the server selection option.
-5.connect to server
-6.try to check visibility of gaming server</t>
-  </si>
-  <si>
     <t>TC_SYM_GS_014</t>
   </si>
   <si>
@@ -342,16 +215,6 @@
   </si>
   <si>
     <t>check consistent low latency</t>
-  </si>
-  <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
-2. open the symlexvpn application once it's installed.
-3. enter your proper credentials and tap to login button
-4. navigate to the server selection option.
-5. connect to server
-6. launch the "call of duty" game
-7. initiate a game update on one connected device.
-8. connect to the gaming server multiple times</t>
   </si>
   <si>
     <t>should verify that the server consistently provides low latency for a stable gaming experience</t>
@@ -370,16 +233,6 @@
   </si>
   <si>
     <t>check impact on game performance</t>
-  </si>
-  <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
-2. open the symlexvpn application once it's installed.
-3. enter your proper credentials and tap to login button
-4. navigate to the server selection option.
-5. connect to server
-6. launch the "call of duty" game
-7. initiate a game update on one connected device.
-8. play online games while connected to the gaming server</t>
   </si>
   <si>
     <t>should confirm that the gaming server positively impacts game performance with reduced lag and smooth gameplay</t>
@@ -404,48 +257,16 @@
     <t>check user interface for gaming server</t>
   </si>
   <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
-2. open the symlexvpn application once it's installed.
-3. enter your proper credentials and tap to login button
-4. navigate to the server selection option.
-5. connect to server
-6. launch the "call of duty" game
-7. initiate a game update on one connected device.
-8. play online games while connected to the gaming server
-9.check if the user interface provides information about the gaming server status when connected</t>
-  </si>
-  <si>
     <t>should confirm that users can easily identify whether they are connected to the gaming server</t>
   </si>
   <si>
     <t>check gaming server load testing</t>
   </si>
   <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
-2. open the symlexvpn application once it's installed.
-3. enter your proper credentials and tap to login button
-4. navigate to the server selection option.
-5. connect to server
-6. launch the "call of duty" game
-7. initiate a game update on one connected device.
-8. play online games while connected to the gaming server
-9. simulate a high number of users connecting to the gaming server simultaneously</t>
-  </si>
-  <si>
     <t>should verify that the gaming server maintains low latency and performance under increased load</t>
   </si>
   <si>
     <t>check connection stability during gaming</t>
-  </si>
-  <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
-2. open the symlexvpn application once it's installed.
-3. enter your proper credentials and tap to login button
-4. navigate to the server selection option.
-5. connect to server
-6. launch the "call of duty" game
-7. initiate a game update on one connected device.
-8. play online games for an extended period while connected to the gaming server</t>
   </si>
   <si>
     <t>should confirm that the connection remains stable without frequent disconnections or interruptions</t>
@@ -486,7 +307,227 @@
 well across a variety of gaming experiences</t>
   </si>
   <si>
-    <t xml:space="preserve">1. go to the google play store and install and configure the symlex vpn app on different desktop devices.
+    <t>check latency impact on voice communication</t>
+  </si>
+  <si>
+    <t>should confirm that low latency extends to voice 
+communication for a seamless gaming experience</t>
+  </si>
+  <si>
+    <t>check user preferences for gaming server</t>
+  </si>
+  <si>
+    <t>should verify that the app prioritizes the gaming 
+server for the user.</t>
+  </si>
+  <si>
+    <t>check latency measurement</t>
+  </si>
+  <si>
+    <t>should confirm that the ping is low, indicating
+reduced communication delay</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server list page.
+5. Select the first gaming server from the gaming section.
+6. Open the "Call of Duty" game and log in with the user account.
+7. Initiate the connection.</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server list page.
+5. Select the first gaming server from the gaming section.
+6. Join a multiplayer game session and play atleast 15 minutes.
+7. Observe and record any latency or connection drop issues during gameplay.</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials and tap to login button
+4. Navigate to the server list page.
+5. Select any gaming server from the gaming section.
+6. Launch the "Call of Duty" game and enter a multiplayer match.
+7. Play the game for at least 15 minutes, ensuring various in-game activities are performed.
+8. Check the PING for meaasuring the latency</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server list page.
+5. Select any gaming server from the gaming section.
+6. Launch the "Call of Duty" game and enter a multiplayer match.
+7. Play the game for at least 15 minutes, ensuring various in-game activities are performed.
+8. Check the PING for meaasuring the latency</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server list page.
+5. Select any gaming server from the gaming section.
+6. Launch the "Call of Duty" game and enter a multiplayer match.
+7. Play several consecutive games of "Call of Duty" on each server.
+8. Monitor the in-game ping times during gameplay.</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server list page.
+5. Attempt to connect the first device to the gaming server.
+6. Repeat the process for the maximum allowed simultaneous connections.
+7. Verify that the VPN app allows the expected maximum number of simultaneous connections.
+8. Ensure that each connected device maintains a stable connection.</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server list page.
+5. Select any gaming server from the gaming section.
+6. Launch the "Call of Duty" game and enter a multiplayer match.
+7. User is connected to the gaming servers.
+8. Click on "disconnet button"</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server list page.
+5. Select any gaming server from the gaming section.
+6. Launch the "Call of Duty" game and enter a multiplayer match.
+7. User is connected to the gaming servers.
+8. turn off the network (wifi/ data)
+9. Click on "disconnet button"</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server list page.
+5. Select any gaming server from the gaming section.
+6. Simulate a temporary loss of internet connection.
+7. Observe the VPN app's behavior during disconnection.
+8. Wait for the internet connection to be restored.</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server selection option.
+5. Select Server B.
+6. Verify that the connection is established with Server B.
+7. Launch the "Call of Duty" game.
+8.Verify that the game runs smoothly without any disruptions.
+9. Check for the game's ping to ensure a reasonable latency level.</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server selection option.
+5. Select a server of Region B.
+6. Verify that the connection is established with Server B.
+7. Launch the "Call of Duty" game.
+8.Verify that the game runs smoothly without any disruptions.</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on different desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server selection option.
+5. Select a server of Region B.
+6. Verify that the connection is established with Server B.
+7. Launch the "Call of Duty" game.
+8.Verify that the game runs smoothly without any disruptions.</t>
+  </si>
+  <si>
+    <t>1. Go to the Google app store and Install and configure the Symlex VPN app on different desktop devices.
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server selection option.
+5.Launch the "Call of Duty" game
+6.Initiate a game update on one connected device.
+7.Monitor the impact on the connection stability of other devices during the update process.</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5.connect to server
+6.try to check visibility of gaming server</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. launch the "call of duty" game
+7. initiate a game update on one connected device.
+8. connect to the gaming server multiple times</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. launch the "call of duty" game
+7. initiate a game update on one connected device.
+8. play online games while connected to the gaming server</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. launch the "call of duty" game
+7. initiate a game update on one connected device.
+8. play online games while connected to the gaming server
+9.check if the user interface provides information about the gaming server status when connected</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. launch the "call of duty" game
+7. initiate a game update on one connected device.
+8. play online games while connected to the gaming server
+9. simulate a high number of users connecting to the gaming server simultaneously</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. launch the "call of duty" game
+7. initiate a game update on one connected device.
+8. play online games for an extended period while connected to the gaming server</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. launch the "call of duty" game
+7. initiate a game update on one connected device
+8.play the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to the google app store and install and configure the symlex vpn app on different desktop devices.
 2. open the symlexvpn application once it's installed.
 3. enter your proper credentials and tap to login button
 4. navigate to the server selection option.
@@ -496,20 +537,7 @@
 8. test the gaming server with online games of different genres </t>
   </si>
   <si>
-    <t>1. go to the google play store and install and configure the symlex vpn app on different desktop devices.
-2. open the symlexvpn application once it's installed.
-3. enter your proper credentials and tap to login button
-4. navigate to the server selection option.
-5. connect to server
-6. launch the "call of duty" game
-7. initiate a game update on one connected device
-8.play the game</t>
-  </si>
-  <si>
-    <t>check latency impact on voice communication</t>
-  </si>
-  <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
 2. open the symlexvpn application once it's installed.
 3. enter your proper credentials and tap to login button
 4. navigate to the server selection option.
@@ -520,14 +548,7 @@
 9. use voice communication applications (e.g., Discord) while connected to the gaming server</t>
   </si>
   <si>
-    <t>should confirm that low latency extends to voice 
-communication for a seamless gaming experience</t>
-  </si>
-  <si>
-    <t>check user preferences for gaming server</t>
-  </si>
-  <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
 2. open the symlexvpn application once it's installed.
 3. enter your proper credentials and tap to login button
 4. navigate to the server selection option.
@@ -538,14 +559,7 @@
 9. check for provide an option for users to mark the gaming server as their preferred server</t>
   </si>
   <si>
-    <t>should verify that the app prioritizes the gaming 
-server for the user.</t>
-  </si>
-  <si>
-    <t>check latency measurement</t>
-  </si>
-  <si>
-    <t>1. Go to the google play store and install and configure the symlex vpn app on different desktop devices.
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
 2. open the symlexvpn application once it's installed.
 3. enter your proper credentials and tap to login button
 4. navigate to the server selection option.
@@ -556,15 +570,62 @@
 9. measure the ping (latency) when connected to the gaming server</t>
   </si>
   <si>
-    <t>should confirm that the ping is low, indicating
-reduced communication delay</t>
+    <t>check dynamic gaming server performance</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. test the gaming server with different online games with varying network demands</t>
+  </si>
+  <si>
+    <t>TC_SYM_GS_026</t>
+  </si>
+  <si>
+    <t>check impact of server location on latency</t>
+  </si>
+  <si>
+    <t>TC_SYM_GS_027</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. test the gaming server with different server locations</t>
+  </si>
+  <si>
+    <t>should confirm that the gaming server adapts to different gaming scenarios effectively</t>
+  </si>
+  <si>
+    <t>should confirm that the ping values are lower when connected to a geographically closer gaming server</t>
+  </si>
+  <si>
+    <t>check gaming server on different gaming platform</t>
+  </si>
+  <si>
+    <t>TC_SYM_GS_028</t>
+  </si>
+  <si>
+    <t>1. Go to the google app store and install and configure the symlex vpn app on different desktop devices.
+2. open the symlexvpn application once it's installed.
+3. enter your proper credentials and tap to login button
+4. navigate to the server selection option.
+5. connect to server
+6. test the gaming server feature on different gaming platforms (PC, gaming consoles)</t>
+  </si>
+  <si>
+    <t>should confirm that the gaming server functionality is consistent across various gaming platforms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -592,12 +653,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -606,12 +661,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -827,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,70 +909,73 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -941,21 +993,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,8 +1005,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Verdana"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -986,8 +1023,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Verdana"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -1000,8 +1037,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Verdana"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -1018,8 +1055,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Verdana"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -1031,8 +1068,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Verdana"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -1045,8 +1082,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Verdana"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -1058,8 +1095,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Verdana"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -1072,8 +1109,8 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Verdana"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -1775,8 +1812,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1792,15 +1829,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1822,13 +1859,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1850,7 +1887,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1891,26 +1928,26 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:26" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1931,26 +1968,26 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:26" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1971,26 +2008,26 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:26" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="D6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2011,26 +2048,26 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>23</v>
+    <row r="7" spans="1:26" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>20</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2051,26 +2088,26 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="130.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:26" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2091,26 +2128,26 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>29</v>
+      <c r="C9" s="31" t="s">
+        <v>26</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>30</v>
+      <c r="D9" s="30" t="s">
+        <v>97</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>31</v>
+      <c r="E9" s="30" t="s">
+        <v>27</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2131,26 +2168,26 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="120.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2171,26 +2208,26 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:26" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>41</v>
+      <c r="C11" s="31" t="s">
+        <v>36</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>42</v>
+      <c r="D11" s="30" t="s">
+        <v>99</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>43</v>
+      <c r="E11" s="30" t="s">
+        <v>37</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2211,26 +2248,26 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>36</v>
+    <row r="12" spans="1:26" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>31</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>45</v>
+      <c r="B12" s="24" t="s">
+        <v>38</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>46</v>
+      <c r="C12" s="23" t="s">
+        <v>39</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>47</v>
+      <c r="D12" s="24" t="s">
+        <v>100</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>48</v>
+      <c r="E12" s="30" t="s">
+        <v>40</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2251,26 +2288,26 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>37</v>
+    <row r="13" spans="1:26" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>32</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>49</v>
+      <c r="B13" s="24" t="s">
+        <v>41</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>50</v>
+      <c r="C13" s="33" t="s">
+        <v>42</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>51</v>
+      <c r="D13" s="24" t="s">
+        <v>101</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>52</v>
+      <c r="E13" s="30" t="s">
+        <v>43</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2291,26 +2328,26 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="127.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>53</v>
+    <row r="14" spans="1:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>44</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>54</v>
+      <c r="B14" s="24" t="s">
+        <v>45</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>55</v>
+      <c r="C14" s="23" t="s">
+        <v>46</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>56</v>
+      <c r="D14" s="24" t="s">
+        <v>102</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>57</v>
+      <c r="E14" s="24" t="s">
+        <v>47</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2331,26 +2368,26 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="137.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>58</v>
+    <row r="15" spans="1:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>48</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>54</v>
+      <c r="B15" s="24" t="s">
+        <v>45</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>60</v>
+      <c r="C15" s="23" t="s">
+        <v>50</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>61</v>
+      <c r="D15" s="24" t="s">
+        <v>103</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>57</v>
+      <c r="E15" s="24" t="s">
+        <v>47</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2371,26 +2408,26 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="115.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>59</v>
+    <row r="16" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>49</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>62</v>
+      <c r="B16" s="24" t="s">
+        <v>51</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>63</v>
+      <c r="C16" s="23" t="s">
+        <v>52</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>64</v>
+      <c r="D16" s="24" t="s">
+        <v>104</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>65</v>
+      <c r="E16" s="24" t="s">
+        <v>53</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2411,24 +2448,24 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>69</v>
+    <row r="17" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>56</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>66</v>
+      <c r="B17" s="24" t="s">
+        <v>54</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>67</v>
+      <c r="C17" s="23" t="s">
+        <v>55</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>68</v>
+      <c r="D17" s="24" t="s">
+        <v>105</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>74</v>
+      <c r="E17" s="24" t="s">
+        <v>60</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2449,24 +2486,24 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>70</v>
+    <row r="18" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>57</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>66</v>
+      <c r="B18" s="24" t="s">
+        <v>54</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>71</v>
+      <c r="C18" s="23" t="s">
+        <v>58</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>72</v>
+      <c r="D18" s="24" t="s">
+        <v>106</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>73</v>
+      <c r="E18" s="24" t="s">
+        <v>59</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2487,24 +2524,24 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>75</v>
+    <row r="19" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>61</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>66</v>
+      <c r="B19" s="24" t="s">
+        <v>54</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>78</v>
+      <c r="C19" s="23" t="s">
+        <v>64</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>79</v>
+      <c r="D19" s="24" t="s">
+        <v>107</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>80</v>
+      <c r="E19" s="24" t="s">
+        <v>65</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="13"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2525,24 +2562,24 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>76</v>
+    <row r="20" spans="1:26" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>62</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>81</v>
+      <c r="D20" s="24" t="s">
+        <v>67</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>82</v>
+      <c r="E20" s="24" t="s">
+        <v>68</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="13"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2563,7 +2600,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
@@ -2591,24 +2628,24 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
-        <v>77</v>
+    <row r="22" spans="1:26" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>63</v>
       </c>
-      <c r="B22" s="40" t="s">
-        <v>66</v>
+      <c r="B22" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>84</v>
+      <c r="C22" s="18" t="s">
+        <v>69</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>85</v>
+      <c r="D22" s="17" t="s">
+        <v>108</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>86</v>
+      <c r="E22" s="17" t="s">
+        <v>70</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2629,24 +2666,24 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
-        <v>93</v>
+    <row r="23" spans="1:26" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>75</v>
       </c>
-      <c r="B23" s="40" t="s">
-        <v>66</v>
+      <c r="B23" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>87</v>
+      <c r="C23" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>88</v>
+      <c r="D23" s="17" t="s">
+        <v>109</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>89</v>
+      <c r="E23" s="17" t="s">
+        <v>72</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2667,24 +2704,24 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39" t="s">
-        <v>94</v>
+    <row r="24" spans="1:26" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>76</v>
       </c>
-      <c r="B24" s="40" t="s">
-        <v>66</v>
+      <c r="B24" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>90</v>
+      <c r="C24" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>91</v>
+      <c r="D24" s="17" t="s">
+        <v>110</v>
       </c>
-      <c r="E24" s="40" t="s">
-        <v>92</v>
+      <c r="E24" s="17" t="s">
+        <v>74</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2705,21 +2742,21 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>95</v>
+    <row r="25" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>77</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>66</v>
+      <c r="B25" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>100</v>
+      <c r="C25" s="19" t="s">
+        <v>82</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>105</v>
+      <c r="D25" s="17" t="s">
+        <v>111</v>
       </c>
-      <c r="E25" s="43" t="s">
-        <v>101</v>
+      <c r="E25" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2744,20 +2781,20 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="39" t="s">
-        <v>96</v>
+      <c r="A26" s="16" t="s">
+        <v>78</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>66</v>
+      <c r="B26" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>102</v>
+      <c r="C26" s="19" t="s">
+        <v>84</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>104</v>
+      <c r="D26" s="17" t="s">
+        <v>112</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>103</v>
+      <c r="E26" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2781,21 +2818,21 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
-        <v>97</v>
+    <row r="27" spans="1:26" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>79</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>66</v>
+      <c r="B27" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C27" s="42" t="s">
-        <v>106</v>
+      <c r="C27" s="19" t="s">
+        <v>86</v>
       </c>
-      <c r="D27" s="40" t="s">
-        <v>107</v>
+      <c r="D27" s="17" t="s">
+        <v>113</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>108</v>
+      <c r="E27" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2820,20 +2857,20 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="39" t="s">
-        <v>98</v>
+      <c r="A28" s="16" t="s">
+        <v>80</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>66</v>
+      <c r="B28" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>109</v>
+      <c r="C28" s="19" t="s">
+        <v>88</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>110</v>
+      <c r="D28" s="17" t="s">
+        <v>114</v>
       </c>
-      <c r="E28" s="43" t="s">
-        <v>111</v>
+      <c r="E28" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2858,20 +2895,20 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39" t="s">
-        <v>99</v>
+      <c r="A29" s="16" t="s">
+        <v>81</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>66</v>
+      <c r="B29" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C29" s="42" t="s">
-        <v>112</v>
+      <c r="C29" s="19" t="s">
+        <v>90</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>113</v>
+      <c r="D29" s="17" t="s">
+        <v>115</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>114</v>
+      <c r="E29" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -2895,12 +2932,22 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+    <row r="30" spans="1:26" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="1"/>
@@ -2923,12 +2970,22 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+    <row r="31" spans="1:26" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
@@ -2951,12 +3008,22 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+    <row r="32" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="1"/>

--- a/apps/features/backlog/desktop/windows/gaming server/gaming_server.xlsx
+++ b/apps/features/backlog/desktop/windows/gaming server/gaming_server.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\gaming server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFC5F14-1DFC-4B8B-B98B-FE33034E1B31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB138ACD-F4D6-4D33-B30F-035D810B2969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="129">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -421,17 +421,6 @@
 2. Open the SymlexVPN application once it's installed.
 3. Enter your proper credentials. and tap to login button.
 4. Navigate to the server selection option.
-5. Select Server B.
-6. Verify that the connection is established with Server B.
-7. Launch the "Call of Duty" game.
-8.Verify that the game runs smoothly without any disruptions.
-9. Check for the game's ping to ensure a reasonable latency level.</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your desktop device
-2. Open the SymlexVPN application once it's installed.
-3. Enter your proper credentials. and tap to login button.
-4. Navigate to the server selection option.
 5. Select a server of Region B.
 6. Verify that the connection is established with Server B.
 7. Launch the "Call of Duty" game.
@@ -619,6 +608,21 @@
   </si>
   <si>
     <t>should confirm that the gaming server functionality is consistent across various gaming platforms</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1. go to the google app store and install symlexvpn on your desktop device
+2. Open the SymlexVPN application once it's installed.
+3. Enter your proper credentials. and tap to login button.
+4. Navigate to the server selection option.
+5. Select Server A.
+6. Verify that the connection is established with Server A.
+7. Launch the "Call of Duty" game.
+8. switch to server B
+9.Verify that the game runs smoothly without any disruptions.
+10. Check for the game's ping to ensure a reasonable latency level.</t>
   </si>
 </sst>
 </file>
@@ -876,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -912,12 +916,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -929,12 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -992,6 +984,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1811,9 +1809,9 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1829,15 +1827,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1859,13 +1857,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1887,7 +1885,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1929,25 +1927,25 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1969,25 +1967,25 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>7</v>
+      <c r="F5" s="21" t="s">
+        <v>127</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -2009,25 +2007,25 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>7</v>
+      <c r="F6" s="21" t="s">
+        <v>127</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2049,25 +2047,25 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>7</v>
+      <c r="F7" s="21" t="s">
+        <v>127</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -2089,25 +2087,25 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2129,25 +2127,25 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2169,25 +2167,25 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2209,25 +2207,25 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="168.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2249,25 +2247,25 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2289,25 +2287,25 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>101</v>
+      <c r="D13" s="20" t="s">
+        <v>128</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2329,25 +2327,25 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>102</v>
+      <c r="D14" s="20" t="s">
+        <v>101</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2369,25 +2367,25 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>103</v>
+      <c r="D15" s="20" t="s">
+        <v>102</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2409,25 +2407,25 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>104</v>
+      <c r="D16" s="20" t="s">
+        <v>103</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2449,23 +2447,23 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>105</v>
+      <c r="D17" s="20" t="s">
+        <v>104</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2487,23 +2485,23 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>106</v>
+      <c r="D18" s="20" t="s">
+        <v>105</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2525,23 +2523,23 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>107</v>
+      <c r="D19" s="20" t="s">
+        <v>106</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2563,23 +2561,23 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2629,22 +2627,22 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>108</v>
+      <c r="D22" s="15" t="s">
+        <v>107</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="12"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2667,22 +2665,22 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>109</v>
+      <c r="D23" s="15" t="s">
+        <v>108</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="12"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2705,22 +2703,22 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>110</v>
+      <c r="D24" s="15" t="s">
+        <v>109</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="12"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2743,17 +2741,17 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>111</v>
+      <c r="D25" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>83</v>
@@ -2781,17 +2779,17 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>112</v>
+      <c r="D26" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>85</v>
@@ -2819,17 +2817,17 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>113</v>
+      <c r="D27" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>87</v>
@@ -2857,17 +2855,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="197.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>114</v>
+      <c r="D28" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>89</v>
@@ -2895,17 +2893,17 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>115</v>
+      <c r="D29" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>91</v>
@@ -2933,20 +2931,20 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>118</v>
+      <c r="A30" s="14" t="s">
+        <v>117</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>117</v>
-      </c>
       <c r="E30" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2971,20 +2969,20 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>120</v>
+      <c r="A31" s="14" t="s">
+        <v>119</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>121</v>
+      <c r="D31" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -3009,20 +3007,20 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>125</v>
+      <c r="A32" s="14" t="s">
+        <v>124</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>126</v>
+      <c r="D32" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
